--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2883.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2883.xlsx
@@ -354,7 +354,7 @@
         <v>1.838020264133715</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.886385203660428</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2883.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2883.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.205439124964734</v>
+        <v>2.322190284729004</v>
       </c>
       <c r="B1">
-        <v>1.838020264133715</v>
+        <v>2.561465501785278</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.739779233932495</v>
       </c>
       <c r="D1">
-        <v>1.886385203660428</v>
+        <v>3.524868488311768</v>
       </c>
       <c r="E1">
-        <v>1.203356907214558</v>
+        <v>0.8342031240463257</v>
       </c>
     </row>
   </sheetData>
